--- a/spec/factories/data/list.xlsx
+++ b/spec/factories/data/list.xlsx
@@ -1,25 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="300" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="工作表1" state="visible" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>用户名(name)</t>
-  </si>
-  <si>
-    <t>邮箱(email)</t>
-  </si>
-  <si>
-    <t>密码(password)</t>
+    <r>
+      <t xml:space="preserve">用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">(name)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">邮箱</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">(email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">手机</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">(phone)</t>
+    </r>
   </si>
   <si>
     <t>张三</t>
@@ -43,16 +83,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,13 +122,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -74,71 +134,119 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="2">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="17.1326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" r="A2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="B2">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" r="A3">
+      <c r="C2" s="0" t="n">
+        <v>18600000000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="B3">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" r="A4">
+      <c r="C3" s="0" t="n">
+        <v>18600000001</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="B4">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>123456</v>
+      <c r="C4" s="0" t="n">
+        <v>18600000002</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/spec/factories/data/list.xlsx
+++ b/spec/factories/data/list.xlsx
@@ -33,6 +33,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">手机</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">(phone)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">邮箱</t>
     </r>
     <r>
@@ -44,21 +59,6 @@
         <sz val="10"/>
       </rPr>
       <t xml:space="preserve">(email)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">手机</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-      </rPr>
-      <t xml:space="preserve">(phone)</t>
     </r>
   </si>
   <si>
@@ -188,7 +188,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1:C4"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -196,7 +196,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="17.1326530612245"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -211,33 +211,33 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>18600000000</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>18600000000</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="0" t="n">
+        <v>18600000001</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>18600000001</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>18600000002</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>18600000002</v>
       </c>
     </row>
   </sheetData>
